--- a/level-2/leetcode-phase-2-2/leetcode-phase-2-2.xlsx
+++ b/level-2/leetcode-phase-2-2/leetcode-phase-2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0792CFF8-E490-4D2E-A9C4-C3161C10F875}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BAD383-6508-40CB-BBF5-0B19FB56DB90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="237">
   <si>
     <t>Problem Link</t>
   </si>
@@ -648,6 +648,84 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/tag-validator/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-median/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-subsequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-value-of-equation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-submatrices-that-sum-to-target/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/get-equal-substrings-within-budget/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/moving-stones-until-consecutive-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/grumpy-bookstore-owner/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-swaps-to-group-all-1s-together/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diet-plan-performance/</t>
   </si>
 </sst>
 </file>
@@ -813,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +956,9 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1352,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1448,7 +1529,7 @@
       </c>
       <c r="J3" s="6">
         <f>COUNTA(J4:J971)</f>
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5441,18 +5522,504 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H200" s="8"/>
-      <c r="J200" s="13"/>
+      <c r="A200" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="23">
+        <f>SUM(C200:G200)</f>
+        <v>0</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H201" s="8"/>
-      <c r="J201" s="13"/>
+      <c r="A201" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="23">
+        <f>SUM(C201:G201)</f>
+        <v>0</v>
+      </c>
+      <c r="J201" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J202" s="13"/>
+      <c r="A202" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="23">
+        <f>SUM(C202:G202)</f>
+        <v>0</v>
+      </c>
+      <c r="J202" s="13" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J203" s="13"/>
+      <c r="A203" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="23">
+        <f>SUM(C203:G203)</f>
+        <v>0</v>
+      </c>
+      <c r="J203" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="23">
+        <f>SUM(C204:G204)</f>
+        <v>0</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="23">
+        <f>SUM(C205:G205)</f>
+        <v>0</v>
+      </c>
+      <c r="J205" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="23">
+        <f>SUM(C206:G206)</f>
+        <v>0</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="23">
+        <f>SUM(C207:G207)</f>
+        <v>0</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="23">
+        <f>SUM(C208:G208)</f>
+        <v>0</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="23">
+        <f>SUM(C209:G209)</f>
+        <v>0</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="23">
+        <f>SUM(C210:G210)</f>
+        <v>0</v>
+      </c>
+      <c r="J210" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="23">
+        <f>SUM(C211:G211)</f>
+        <v>0</v>
+      </c>
+      <c r="J211" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="23">
+        <f>SUM(C212:G212)</f>
+        <v>0</v>
+      </c>
+      <c r="J212" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="23">
+        <f>SUM(C213:G213)</f>
+        <v>0</v>
+      </c>
+      <c r="J213" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="23">
+        <f>SUM(C214:G214)</f>
+        <v>0</v>
+      </c>
+      <c r="J214" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="23">
+        <f>SUM(C215:G215)</f>
+        <v>0</v>
+      </c>
+      <c r="J215" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="23">
+        <f>SUM(C216:G216)</f>
+        <v>0</v>
+      </c>
+      <c r="J216" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="23">
+        <f>SUM(C217:G217)</f>
+        <v>0</v>
+      </c>
+      <c r="J217" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="23">
+        <f>SUM(C218:G218)</f>
+        <v>0</v>
+      </c>
+      <c r="J218" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="23">
+        <f>SUM(C219:G219)</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="23">
+        <f>SUM(C220:G220)</f>
+        <v>0</v>
+      </c>
+      <c r="J220" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="23">
+        <f>SUM(C221:G221)</f>
+        <v>0</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="23">
+        <f>SUM(C222:G222)</f>
+        <v>0</v>
+      </c>
+      <c r="J222" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="23">
+        <f>SUM(C223:G223)</f>
+        <v>0</v>
+      </c>
+      <c r="J223" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="23">
+        <f>SUM(C224:G224)</f>
+        <v>0</v>
+      </c>
+      <c r="J224" s="13" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
